--- a/Casos de prueba/TC-7.xlsx
+++ b/Casos de prueba/TC-7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\UADE\Testing de aplicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2007BABD-FBB3-47A5-856C-4C36AC73A4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F042C3B6-8FC3-4F5A-A145-A613F6EFBB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{928E5411-3D5C-48C7-987F-525635BF0C36}"/>
   </bookViews>
@@ -610,20 +610,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -656,81 +644,93 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,20 +746,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1102,251 +1102,251 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>7.1</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="43"/>
+      <c r="I8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="43"/>
+      <c r="K8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="20" t="s">
+      <c r="L8" s="43"/>
+      <c r="M8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="22"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="43"/>
+      <c r="I9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="20" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:14" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="18">
         <v>3</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="G10" s="27" t="s">
+      <c r="E10" s="17"/>
+      <c r="G10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="29" t="s">
+      <c r="B11" s="17"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30" t="s">
+      <c r="M11" s="22"/>
+      <c r="N11" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="29" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="9"/>
+      <c r="G12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="30" t="s">
+      <c r="M12" s="22"/>
+      <c r="N12" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="45" t="s">
@@ -1355,201 +1355,196 @@
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="47"/>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30" t="s">
+      <c r="M13" s="22"/>
+      <c r="N13" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="24"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F16" s="13"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="24"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="34">
         <v>1</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="G18" s="43" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="G18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="36"/>
+      <c r="I18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43" t="s">
+      <c r="L18" s="36"/>
+      <c r="M18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="43"/>
+      <c r="N18" s="36"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+      <c r="A19" s="34">
         <v>2</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="34">
         <v>3</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:C15"/>
@@ -1561,6 +1556,11 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-7.xlsx
+++ b/Casos de prueba/TC-7.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F042C3B6-8FC3-4F5A-A145-A613F6EFBB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EEF07B-9017-44B2-B343-C6FCC389962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{928E5411-3D5C-48C7-987F-525635BF0C36}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -95,21 +95,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>valid email</t>
-  </si>
-  <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
-    <t>Tester: Jane Williams</t>
-  </si>
-  <si>
-    <t>Tester:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password </t>
-  </si>
-  <si>
     <t>Actual Results</t>
   </si>
   <si>
@@ -122,15 +107,9 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Not executed</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>User Stories covered</t>
   </si>
   <si>
@@ -167,25 +146,61 @@
     <t>TC-07</t>
   </si>
   <si>
-    <t>email and password</t>
-  </si>
-  <si>
     <t>Enter User &amp; Password</t>
   </si>
   <si>
     <t>Password: 1q2w3e4r5tttt</t>
   </si>
   <si>
-    <t>Review comments from Jane incorprated in version 7.1</t>
-  </si>
-  <si>
-    <t>Verify customer can login after entering valid user and invalid password</t>
-  </si>
-  <si>
-    <t>valid user, invalid password</t>
-  </si>
-  <si>
-    <t>Cutomer cannot logged in, incorrect password</t>
+    <t>Review comments from Jane incorprated in version 8.1</t>
+  </si>
+  <si>
+    <t>Enter with a valid account</t>
+  </si>
+  <si>
+    <t>Tester: Camila Sturlesi</t>
+  </si>
+  <si>
+    <t>Tester: Martina Degui</t>
+  </si>
+  <si>
+    <t>Tester: Sebastian Deina</t>
+  </si>
+  <si>
+    <t>Tester:  Lucas Argerich</t>
+  </si>
+  <si>
+    <t>Verify customer can add a product to the car</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>email, password and existing product</t>
+  </si>
+  <si>
+    <t>valid use and password</t>
+  </si>
+  <si>
+    <t>Customer can logged in</t>
+  </si>
+  <si>
+    <t>look for the product</t>
+  </si>
+  <si>
+    <t>Customer found it</t>
+  </si>
+  <si>
+    <t>Click Buy</t>
+  </si>
+  <si>
+    <t>Opens de page of the product</t>
+  </si>
+  <si>
+    <t>click Add to car</t>
+  </si>
+  <si>
+    <t>the product is added to the car</t>
   </si>
 </sst>
 </file>
@@ -307,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -591,6 +606,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -599,7 +627,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -683,9 +711,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,17 +723,56 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -722,44 +786,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1078,34 +1115,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BDA26A-C0FC-4C6E-A8E6-9A5C5A5B4541}">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CED4BC1-646E-4B57-9A9C-2862E09EEA08}">
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1115,22 +1147,22 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="6">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1183,16 +1215,16 @@
       <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="43"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
@@ -1207,88 +1239,88 @@
       <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="42" t="s">
+      <c r="H8" s="38"/>
+      <c r="I8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="42" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="42" t="s">
+      <c r="L8" s="38"/>
+      <c r="M8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="43"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="43"/>
+        <v>37</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:14" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="B10" s="17"/>
       <c r="D10" s="18">
         <v>3</v>
       </c>
       <c r="E10" s="17"/>
       <c r="G10" s="20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>4</v>
       </c>
@@ -1297,85 +1329,91 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="N11" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="21"/>
       <c r="E12" s="9"/>
       <c r="G12" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="N12" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="G13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="G13" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="56" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1384,171 +1422,223 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="17"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="17"/>
+      <c r="A15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F16" s="9"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+    </row>
+    <row r="18" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>1</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="G18" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="33"/>
+    </row>
+    <row r="19" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
+        <v>2</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>3</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
-        <v>1</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="G18" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="36"/>
-    </row>
-    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
-        <v>2</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="38" t="s">
+      <c r="C20" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
-        <v>3</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="39" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
+        <v>4</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="C21" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
+      <c r="A22" s="35">
+        <v>5</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="35">
+        <v>6</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="35">
+        <v>7</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="21">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G7:N7"/>
@@ -1556,11 +1646,6 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-7.xlsx
+++ b/Casos de prueba/TC-7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EEF07B-9017-44B2-B343-C6FCC389962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9184F0-5654-4438-BD9F-F42AFBE3DBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{928E5411-3D5C-48C7-987F-525635BF0C36}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Automation Status</t>
   </si>
   <si>
-    <t>Not Automated</t>
-  </si>
-  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Defects Created</t>
   </si>
   <si>
-    <t>DF-001: Home page is not displayed upon logging in</t>
-  </si>
-  <si>
     <t>Click Submit</t>
   </si>
   <si>
@@ -201,6 +195,9 @@
   </si>
   <si>
     <t>the product is added to the car</t>
+  </si>
+  <si>
+    <t>Automated</t>
   </si>
 </sst>
 </file>
@@ -735,12 +732,45 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -750,53 +780,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1118,26 +1115,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CED4BC1-646E-4B57-9A9C-2862E09EEA08}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1147,15 +1155,15 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
@@ -1215,16 +1223,16 @@
       <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="38"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
@@ -1239,52 +1247,52 @@
       <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="37" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="37" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="37" t="s">
+      <c r="L8" s="48"/>
+      <c r="M8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="38"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="37" t="s">
+      <c r="L9" s="48"/>
+      <c r="M9" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="38"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -1385,34 +1393,34 @@
       <c r="A13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="G13" s="55" t="s">
+      <c r="B13" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="G13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="55" t="s">
+      <c r="J13" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="56" t="s">
+      <c r="L13" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="38" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1422,28 +1430,28 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="43"/>
+      <c r="B15" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="41"/>
       <c r="D15" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1467,63 +1475,61 @@
     </row>
     <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="C17" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>1</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="G18" s="33" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="G18" s="33" t="s">
-        <v>32</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18" s="33"/>
     </row>
-    <row r="19" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>2</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+        <v>34</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="34" t="s">
-        <v>33</v>
-      </c>
+      <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
@@ -1535,13 +1541,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
+        <v>32</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
@@ -1556,13 +1562,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
+        <v>47</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -1577,13 +1583,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
+        <v>49</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
@@ -1598,13 +1604,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -1619,9 +1625,9 @@
         <v>7</v>
       </c>
       <c r="B24" s="35"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1633,11 +1639,6 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1646,6 +1647,11 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-7.xlsx
+++ b/Casos de prueba/TC-7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9184F0-5654-4438-BD9F-F42AFBE3DBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB9A15-D027-4247-A965-419DB9D70BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{928E5411-3D5C-48C7-987F-525635BF0C36}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Tester:  Lucas Argerich</t>
   </si>
   <si>
-    <t>Verify customer can add a product to the car</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -185,12 +182,6 @@
     <t>Customer found it</t>
   </si>
   <si>
-    <t>Click Buy</t>
-  </si>
-  <si>
-    <t>Opens de page of the product</t>
-  </si>
-  <si>
     <t>click Add to car</t>
   </si>
   <si>
@@ -198,6 +189,12 @@
   </si>
   <si>
     <t>Automated</t>
+  </si>
+  <si>
+    <t>Verify user can add a product to the car</t>
+  </si>
+  <si>
+    <t>a product to add</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CED4BC1-646E-4B57-9A9C-2862E09EEA08}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,11 +1291,13 @@
       </c>
       <c r="N9" s="48"/>
     </row>
-    <row r="10" spans="1:14" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="D10" s="18">
         <v>3</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
@@ -1409,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="37" t="s">
         <v>21</v>
@@ -1444,14 +1443,14 @@
         <v>24</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1523,7 +1522,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
@@ -1544,7 +1543,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
@@ -1562,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="53" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>48</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
@@ -1579,35 +1578,24 @@
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
-        <v>5</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
@@ -1622,7 +1610,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="53"/>
@@ -1630,7 +1618,7 @@
       <c r="E24" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C17:E17"/>
@@ -1638,7 +1626,6 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>

--- a/Casos de prueba/TC-7.xlsx
+++ b/Casos de prueba/TC-7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB9A15-D027-4247-A965-419DB9D70BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D417FAB8-62D2-438E-BC2F-CCB4051B9056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{928E5411-3D5C-48C7-987F-525635BF0C36}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>a product to add</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -738,6 +741,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,21 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1112,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CED4BC1-646E-4B57-9A9C-2862E09EEA08}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,10 +1142,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1152,8 +1155,8 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1220,16 +1223,16 @@
       <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
@@ -1244,22 +1247,22 @@
       <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46" t="s">
+      <c r="H8" s="53"/>
+      <c r="I8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="46" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="46" t="s">
+      <c r="L8" s="53"/>
+      <c r="M8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="48"/>
+      <c r="N8" s="53"/>
     </row>
     <row r="9" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -1274,22 +1277,22 @@
       <c r="E9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="46" t="s">
+      <c r="H9" s="53"/>
+      <c r="I9" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="49" t="s">
+      <c r="J9" s="52"/>
+      <c r="K9" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="46" t="s">
+      <c r="L9" s="53"/>
+      <c r="M9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="48"/>
+      <c r="N9" s="53"/>
     </row>
     <row r="10" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -1339,7 +1342,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>21</v>
@@ -1392,12 +1395,12 @@
       <c r="A13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
       <c r="G13" s="37" t="s">
         <v>21</v>
       </c>
@@ -1442,10 +1445,10 @@
       <c r="A15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="29" t="s">
         <v>25</v>
       </c>
@@ -1479,11 +1482,11 @@
       <c r="B17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
@@ -1492,11 +1495,11 @@
       <c r="B18" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
       <c r="G18" s="33" t="s">
         <v>31</v>
       </c>
@@ -1521,11 +1524,11 @@
       <c r="B19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -1542,11 +1545,11 @@
       <c r="B20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
@@ -1563,11 +1566,11 @@
       <c r="B21" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -1594,11 +1597,11 @@
       <c r="B23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -1613,19 +1616,12 @@
         <v>6</v>
       </c>
       <c r="B24" s="35"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1639,6 +1635,13 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-7.xlsx
+++ b/Casos de prueba/TC-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D417FAB8-62D2-438E-BC2F-CCB4051B9056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A877D22A-A82E-4391-AB9B-57A52BF17D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{928E5411-3D5C-48C7-987F-525635BF0C36}"/>
+    <workbookView xWindow="2280" yWindow="4155" windowWidth="7500" windowHeight="7680" xr2:uid="{928E5411-3D5C-48C7-987F-525635BF0C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Tester:  Lucas Argerich</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>email, password and existing product</t>
   </si>
   <si>
@@ -198,6 +195,12 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Not As Expected</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -741,6 +744,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -755,45 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1115,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CED4BC1-646E-4B57-9A9C-2862E09EEA08}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,10 +1145,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1155,8 +1158,8 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1223,16 +1226,16 @@
       <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
@@ -1247,22 +1250,22 @@
       <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="51" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="51" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="51" t="s">
+      <c r="L8" s="48"/>
+      <c r="M8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -1277,29 +1280,29 @@
       <c r="E9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="51" t="s">
+      <c r="H9" s="48"/>
+      <c r="I9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="54" t="s">
+      <c r="J9" s="47"/>
+      <c r="K9" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="53"/>
-      <c r="M9" s="51" t="s">
+      <c r="L9" s="48"/>
+      <c r="M9" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="53"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="18">
         <v>3</v>
@@ -1330,7 +1333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>4</v>
       </c>
@@ -1339,16 +1342,16 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="22" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>21</v>
-      </c>
       <c r="J11" s="23" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>21</v>
@@ -1357,26 +1360,26 @@
         <v>22</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="D12" s="21"/>
       <c r="E12" s="9"/>
       <c r="G12" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>21</v>
@@ -1385,33 +1388,33 @@
         <v>22</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
+      <c r="B13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="G13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>42</v>
+      <c r="H13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="K13" s="37" t="s">
         <v>21</v>
@@ -1419,11 +1422,11 @@
       <c r="L13" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>22</v>
+      <c r="M13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1445,15 +1448,15 @@
       <c r="A15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="46"/>
+      <c r="B15" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="41"/>
       <c r="D15" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1482,11 +1485,11 @@
       <c r="B17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
@@ -1495,11 +1498,11 @@
       <c r="B18" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
       <c r="G18" s="33" t="s">
         <v>31</v>
       </c>
@@ -1524,11 +1527,11 @@
       <c r="B19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="C19" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -1545,11 +1548,11 @@
       <c r="B20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
+      <c r="C20" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
@@ -1564,13 +1567,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -1595,13 +1598,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -1616,12 +1619,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="35"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1635,13 +1645,6 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
